--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Lorraine/Liste_des_espèces_végétales_protégées_en_Lorraine.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Lorraine/Liste_des_espèces_végétales_protégées_en_Lorraine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Lorraine</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Lorraine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>La liste des espèces protégées en Lorraine est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Lorraine, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 3 janvier 1994[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>La liste des espèces protégées en Lorraine est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Lorraine, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 3 janvier 1994.
 Alopecurus bulbosus Gouan, Vulpin bulbeux.
 Amelanchier ovalis Medik., Amélanchier à feuilles ovales.
 Anagallis tenella L., Mouron délicat.
@@ -668,7 +680,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Lorraine</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Lorraine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -686,7 +698,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste des sites naturels classés et inscrits de la Lorraine</t>
         </is>
